--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316983.177072023</v>
+        <v>1315660.613260087</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948781</v>
+        <v>5866991.033948783</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736054</v>
+        <v>1783678.472736051</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>140.1252612064919</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>219.5410737758575</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -673,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>143.8401299338264</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.86752261819789</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>70.90707662134096</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>296.3165330601028</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>143.8401299338258</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>134.7687682801734</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
@@ -1141,16 +1141,16 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>295.5803500513409</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>11.66711648396958</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>153.0251390105127</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1359,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>337.8578625689831</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>76.43104772188501</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>151.0897429533501</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1903,7 +1903,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.6156879951413</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2016,13 +2016,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>79.89374730486868</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>368.180220150888</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>94.22183073093279</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>173.7190346830451</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>201.4462948508507</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
@@ -2535,16 +2535,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>37.11488940012057</v>
       </c>
       <c r="W25" t="n">
-        <v>7.433197415914973</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.4697473695408</v>
+        <v>256.6554706538655</v>
       </c>
       <c r="H26" t="n">
-        <v>158.231281714787</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>245.6964985632052</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>219.4502342431653</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2812,7 +2812,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>198.5249024012104</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>81.88988233735115</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>7.474426177931671</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>190.1198520010243</v>
+        <v>269.0058312101741</v>
       </c>
       <c r="G32" t="n">
         <v>404.4697473695408</v>
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>38.21892107970075</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4729733773151</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>177.7694914447167</v>
+        <v>256.6554706538655</v>
       </c>
       <c r="H35" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>266.3097311849723</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.5987322018466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>190.1198520010261</v>
       </c>
       <c r="G38" t="n">
         <v>404.4697473695408</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>201.4462948508507</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.8808794616539</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>152.5703767202973</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>173.719034683046</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3757,10 +3757,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
-        <v>158.231281714787</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.36004785347838</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S43" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>123.2085082622807</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>71.42047856476314</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920607</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.9961225388231</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>120.6665158531471</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>526.6154762691361</v>
+        <v>1196.018202934688</v>
       </c>
       <c r="C2" t="n">
-        <v>385.0748083837908</v>
+        <v>785.8936122479585</v>
       </c>
       <c r="D2" t="n">
-        <v>384.6512825172554</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E2" t="n">
-        <v>374.3514710745562</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F2" t="n">
-        <v>357.3614630686478</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.416726816583</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W2" t="n">
-        <v>1738.416726816583</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X2" t="n">
-        <v>1337.773328985535</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.8366559336256</v>
+        <v>1202.198978558774</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.0423322891296</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="C4" t="n">
-        <v>384.9489598508461</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D4" t="n">
-        <v>225.4543151737561</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E4" t="n">
-        <v>206.3962115190108</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>1720.183415701626</v>
       </c>
       <c r="V4" t="n">
-        <v>1485.891263925851</v>
+        <v>1446.297670641148</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.821599434726</v>
+        <v>1167.228006150022</v>
       </c>
       <c r="X4" t="n">
-        <v>968.4777372944093</v>
+        <v>928.8841440097058</v>
       </c>
       <c r="Y4" t="n">
-        <v>743.742038683174</v>
+        <v>704.1484453984705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.4906855502296</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>549.4064989039038</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D5" t="n">
-        <v>477.7831891853775</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1054.568412147452</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1346.075159870194</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="W5" t="n">
-        <v>962.3148590053625</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="X5" t="n">
-        <v>561.671461174315</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="Y5" t="n">
-        <v>561.671461174315</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784821</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643.4430850475114</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1110.212455932681</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.212455932681</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W7" t="n">
-        <v>831.1427914415558</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X7" t="n">
-        <v>831.1427914415558</v>
+        <v>411.7938447800554</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.1427914415558</v>
+        <v>187.0581461688201</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>465.1682704936311</v>
+        <v>1285.591565793851</v>
       </c>
       <c r="C8" t="n">
-        <v>459.0840838473053</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D8" t="n">
-        <v>458.6605579807699</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E8" t="n">
-        <v>448.3607465380707</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F8" t="n">
-        <v>431.3707385321622</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>426.6828584653985</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>2076.469315334678</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>2076.469315334678</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.149751022952</v>
+        <v>2076.469315334678</v>
       </c>
       <c r="W8" t="n">
-        <v>875.3894501581206</v>
+        <v>1692.709014469847</v>
       </c>
       <c r="X8" t="n">
-        <v>875.3894501581206</v>
+        <v>1692.709014469847</v>
       </c>
       <c r="Y8" t="n">
-        <v>875.3894501581206</v>
+        <v>1291.772341417937</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
         <v>41.76508562960205</v>
@@ -4992,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.593134765086</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.707389704608</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>863.6377252134819</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>625.2938630731653</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
-        <v>400.5581644619299</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O12" t="n">
-        <v>1228.182536368609</v>
+        <v>1445.819902064449</v>
       </c>
       <c r="P12" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>170.4467761975773</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>358.1464825916217</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.989961721529</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
         <v>209.5897435862967</v>
@@ -5475,13 +5475,13 @@
         <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2139.066799289355</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5515,7 +5515,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>524.2254458227151</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>524.2254458227151</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.3736558270855</v>
+        <v>924.934539332422</v>
       </c>
       <c r="C19" t="n">
-        <v>578.280283388802</v>
+        <v>924.934539332422</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>765.439894655332</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>604.5290795236515</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>439.8979536342428</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.024190797049</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.024190797049</v>
+        <v>1112.634245726466</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2884921858141</v>
+        <v>1112.634245726466</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5834,22 +5834,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>2002.69172805944</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
         <v>2110.173374178493</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.652060380064</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.386737077264</v>
+        <v>1287.920288893293</v>
       </c>
       <c r="V22" t="n">
-        <v>4105.500992016786</v>
+        <v>1287.920288893293</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.43132752566</v>
+        <v>1287.920288893293</v>
       </c>
       <c r="X22" t="n">
-        <v>3588.087465385343</v>
+        <v>1049.576426752977</v>
       </c>
       <c r="Y22" t="n">
-        <v>3363.351766774108</v>
+        <v>1049.576426752977</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2465.07134031066</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C23" t="n">
-        <v>2054.94674962393</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D23" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E23" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F23" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G23" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H23" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K23" t="n">
         <v>925.7208439477949</v>
@@ -6010,31 +6010,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T23" t="n">
-        <v>4667.517099428236</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U23" t="n">
-        <v>4410.470446386458</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V23" t="n">
-        <v>4060.632891722939</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W23" t="n">
-        <v>3676.872590858107</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X23" t="n">
-        <v>3276.22919302706</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y23" t="n">
-        <v>2875.29251997515</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M24" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N24" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3576.034075677884</v>
+        <v>863.641912551966</v>
       </c>
       <c r="C25" t="n">
-        <v>3576.034075677884</v>
+        <v>863.641912551966</v>
       </c>
       <c r="D25" t="n">
-        <v>3576.034075677884</v>
+        <v>704.147267874876</v>
       </c>
       <c r="E25" t="n">
-        <v>3415.123260546203</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="F25" t="n">
-        <v>3415.123260546203</v>
+        <v>378.6053268537867</v>
       </c>
       <c r="G25" t="n">
-        <v>3415.123260546203</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H25" t="n">
-        <v>3266.20569142252</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I25" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J25" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N25" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.957714591686</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U25" t="n">
-        <v>4082.163799567693</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V25" t="n">
-        <v>3808.278054507215</v>
+        <v>1142.711577043092</v>
       </c>
       <c r="W25" t="n">
-        <v>3800.769774289119</v>
+        <v>863.641912551966</v>
       </c>
       <c r="X25" t="n">
-        <v>3800.769774289119</v>
+        <v>863.641912551966</v>
       </c>
       <c r="Y25" t="n">
-        <v>3576.034075677884</v>
+        <v>863.641912551966</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>665.8048419697211</v>
       </c>
       <c r="G26" t="n">
-        <v>257.2495415964476</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H26" t="n">
         <v>97.41996410676371</v>
@@ -6241,7 +6241,7 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P26" t="n">
         <v>4480.322041270213</v>
@@ -6305,28 +6305,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>778.2043133443127</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M27" t="n">
-        <v>1644.165903960623</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>1644.165903960623</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3586.61115123129</v>
+        <v>535.558300893676</v>
       </c>
       <c r="C28" t="n">
-        <v>3586.61115123129</v>
+        <v>535.558300893676</v>
       </c>
       <c r="D28" t="n">
-        <v>3427.1165065542</v>
+        <v>376.063656216586</v>
       </c>
       <c r="E28" t="n">
-        <v>3266.205691422519</v>
+        <v>376.063656216586</v>
       </c>
       <c r="F28" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G28" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H28" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I28" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J28" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N28" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>4789.214420046788</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S28" t="n">
-        <v>4604.174913274182</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.957714591686</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U28" t="n">
-        <v>4082.163799567692</v>
+        <v>947.9937058989557</v>
       </c>
       <c r="V28" t="n">
-        <v>3808.278054507214</v>
+        <v>947.9937058989557</v>
       </c>
       <c r="W28" t="n">
-        <v>3586.61115123129</v>
+        <v>947.9937058989557</v>
       </c>
       <c r="X28" t="n">
-        <v>3586.61115123129</v>
+        <v>947.9937058989557</v>
       </c>
       <c r="Y28" t="n">
-        <v>3586.61115123129</v>
+        <v>723.2580072877204</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F29" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732512</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477968</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547878</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.155711445511</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.58841637226</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202963</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968403</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210384</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168606</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>778.2043133443127</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>1644.165903960623</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1644.165903960623</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.41996410676373</v>
+        <v>435.6861330716566</v>
       </c>
       <c r="C31" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="D31" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J31" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K31" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L31" t="n">
         <v>551.4710044025715</v>
@@ -6645,28 +6645,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>1113.454934409919</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V31" t="n">
-        <v>839.5691893494413</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W31" t="n">
-        <v>560.4995248583157</v>
+        <v>898.7656938232085</v>
       </c>
       <c r="X31" t="n">
-        <v>322.155662717999</v>
+        <v>660.4218316828919</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.41996410676373</v>
+        <v>435.6861330716566</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1086.835254016034</v>
       </c>
       <c r="F32" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G32" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I32" t="n">
         <v>97.41996410676371</v>
@@ -6718,7 +6718,7 @@
         <v>3926.78508420296</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q32" t="n">
         <v>4819.791607344924</v>
@@ -6779,28 +6779,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>256.9146087838537</v>
+        <v>268.5133365450472</v>
       </c>
       <c r="C34" t="n">
-        <v>256.9146087838537</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D34" t="n">
         <v>97.41996410676371</v>
@@ -6885,25 +6885,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519373</v>
+        <v>1098.417579024544</v>
       </c>
       <c r="V34" t="n">
-        <v>639.4923271914593</v>
+        <v>824.531833964066</v>
       </c>
       <c r="W34" t="n">
-        <v>360.4226627003336</v>
+        <v>545.4621694729403</v>
       </c>
       <c r="X34" t="n">
-        <v>256.9146087838537</v>
+        <v>307.1183073326237</v>
       </c>
       <c r="Y34" t="n">
-        <v>256.9146087838537</v>
+        <v>307.1183073326237</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092807</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406077</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499138</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E35" t="n">
         <v>1086.835254016034</v>
       </c>
       <c r="F35" t="n">
-        <v>665.804841969722</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G35" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H35" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J35" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
@@ -6949,40 +6949,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809207</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757297</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M36" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N36" t="n">
-        <v>1860.632488341521</v>
+        <v>1666.508464556659</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1666.508464556659</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4238.426015209276</v>
+        <v>429.4241516767277</v>
       </c>
       <c r="C37" t="n">
-        <v>4067.332642770992</v>
+        <v>258.3307792384442</v>
       </c>
       <c r="D37" t="n">
-        <v>3907.837998093902</v>
+        <v>258.3307792384442</v>
       </c>
       <c r="E37" t="n">
-        <v>3746.927182962222</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F37" t="n">
-        <v>3582.296057072813</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G37" t="n">
-        <v>3415.123260546203</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I37" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J37" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>4870.998205338186</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S37" t="n">
-        <v>4870.998205338186</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T37" t="n">
-        <v>4631.78100665569</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="U37" t="n">
-        <v>4631.78100665569</v>
+        <v>1166.389457488758</v>
       </c>
       <c r="V37" t="n">
-        <v>4631.78100665569</v>
+        <v>892.5037124282796</v>
       </c>
       <c r="W37" t="n">
-        <v>4631.78100665569</v>
+        <v>892.5037124282796</v>
       </c>
       <c r="X37" t="n">
-        <v>4631.78100665569</v>
+        <v>654.1598502879631</v>
       </c>
       <c r="Y37" t="n">
-        <v>4426.12572160332</v>
+        <v>429.4241516767277</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2465.07134031066</v>
+        <v>2315.763990092808</v>
       </c>
       <c r="C38" t="n">
-        <v>2054.94674962393</v>
+        <v>1905.639399406078</v>
       </c>
       <c r="D38" t="n">
-        <v>1650.482819716991</v>
+        <v>1501.175469499139</v>
       </c>
       <c r="E38" t="n">
-        <v>1236.142604233887</v>
+        <v>1086.835254016035</v>
       </c>
       <c r="F38" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G38" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H38" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732512</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477968</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547878</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.155711445511</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.58841637226</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202963</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S38" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968403</v>
       </c>
       <c r="T38" t="n">
-        <v>4667.517099428236</v>
+        <v>4518.209749210384</v>
       </c>
       <c r="U38" t="n">
-        <v>4410.470446386458</v>
+        <v>4261.163096168606</v>
       </c>
       <c r="V38" t="n">
-        <v>4060.632891722939</v>
+        <v>3911.325541505087</v>
       </c>
       <c r="W38" t="n">
-        <v>3676.872590858107</v>
+        <v>3527.565240640255</v>
       </c>
       <c r="X38" t="n">
-        <v>3276.22919302706</v>
+        <v>3126.921842809208</v>
       </c>
       <c r="Y38" t="n">
-        <v>2875.29251997515</v>
+        <v>2725.985169757298</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>761.2280740927458</v>
+        <v>405.8321779075372</v>
       </c>
       <c r="C40" t="n">
-        <v>590.1347016544623</v>
+        <v>405.8321779075372</v>
       </c>
       <c r="D40" t="n">
-        <v>590.1347016544623</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="E40" t="n">
-        <v>429.2238865227819</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676373</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I40" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K40" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L40" t="n">
         <v>551.4710044025715</v>
@@ -7362,22 +7362,22 @@
         <v>1620.428692731033</v>
       </c>
       <c r="T40" t="n">
-        <v>1620.428692731033</v>
+        <v>1466.317201094369</v>
       </c>
       <c r="U40" t="n">
-        <v>1620.428692731033</v>
+        <v>1183.523286070376</v>
       </c>
       <c r="V40" t="n">
-        <v>1620.428692731033</v>
+        <v>909.6375410098981</v>
       </c>
       <c r="W40" t="n">
-        <v>1341.359028239908</v>
+        <v>630.5678765187724</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.015166099591</v>
+        <v>630.5678765187724</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.2794674883559</v>
+        <v>405.8321779075372</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092806</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406076</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F41" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G41" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H41" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732494</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477945</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547875</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445508</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372257</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505085</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640253</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809206</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757296</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
         <v>298.803175282419</v>
@@ -7496,22 +7496,22 @@
         <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>1050.674000801944</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>1050.674000801944</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1050.674000801944</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>447.4820379089467</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C43" t="n">
-        <v>447.4820379089467</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D43" t="n">
-        <v>287.9873932318567</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E43" t="n">
-        <v>127.0765781001762</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
         <v>1145.132879486175</v>
@@ -7593,28 +7593,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>1620.428692731033</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S43" t="n">
         <v>1435.389185958427</v>
       </c>
       <c r="T43" t="n">
-        <v>1435.389185958427</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U43" t="n">
-        <v>1152.595270934433</v>
+        <v>913.3780722519375</v>
       </c>
       <c r="V43" t="n">
-        <v>1152.595270934433</v>
+        <v>788.9250336031691</v>
       </c>
       <c r="W43" t="n">
-        <v>873.5256064433077</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="X43" t="n">
-        <v>635.1817443029911</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y43" t="n">
-        <v>635.1817443029911</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2465.07134031066</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C44" t="n">
-        <v>2054.94674962393</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D44" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E44" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F44" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G44" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H44" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J44" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7663,37 +7663,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O44" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T44" t="n">
-        <v>4667.517099428236</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U44" t="n">
-        <v>4410.470446386458</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V44" t="n">
-        <v>4060.632891722939</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W44" t="n">
-        <v>3676.872590858107</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X44" t="n">
-        <v>3276.22919302706</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y44" t="n">
-        <v>2875.29251997515</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>256.9146087838537</v>
+        <v>694.8903439827799</v>
       </c>
       <c r="C46" t="n">
-        <v>256.9146087838537</v>
+        <v>694.8903439827799</v>
       </c>
       <c r="D46" t="n">
-        <v>97.41996410676371</v>
+        <v>535.39569930569</v>
       </c>
       <c r="E46" t="n">
-        <v>97.41996410676371</v>
+        <v>535.39569930569</v>
       </c>
       <c r="F46" t="n">
-        <v>97.41996410676371</v>
+        <v>413.5103297570565</v>
       </c>
       <c r="G46" t="n">
-        <v>97.41996410676371</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
         <v>1145.132879486175</v>
@@ -7830,28 +7830,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>1620.428692731033</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S46" t="n">
-        <v>1435.389185958427</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="T46" t="n">
-        <v>1435.389185958427</v>
+        <v>1381.211494048538</v>
       </c>
       <c r="U46" t="n">
-        <v>1152.595270934433</v>
+        <v>1381.211494048538</v>
       </c>
       <c r="V46" t="n">
-        <v>1152.595270934433</v>
+        <v>1107.32574898806</v>
       </c>
       <c r="W46" t="n">
-        <v>873.5256064433077</v>
+        <v>1107.32574898806</v>
       </c>
       <c r="X46" t="n">
-        <v>635.1817443029911</v>
+        <v>1107.32574898806</v>
       </c>
       <c r="Y46" t="n">
-        <v>410.4460456917558</v>
+        <v>882.5900503768243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>531.0119939709983</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>296.1630732760185</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574857</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>557.0846165901667</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8075,13 +8075,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8236,10 +8236,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>68.26591628750379</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574859</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>528.0883472030758</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8783,16 +8783,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>75.97815626606008</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>371.9455010937738</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
@@ -9017,13 +9017,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6635313430244</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>492.8993828617429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>166.3187983121741</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654514</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O24" t="n">
-        <v>315.753958306325</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N27" t="n">
-        <v>29.36224035654936</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O27" t="n">
-        <v>534.4070738425849</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N30" t="n">
-        <v>29.36224035654936</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O30" t="n">
-        <v>534.4070738425849</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654514</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O33" t="n">
-        <v>315.753958306325</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654514</v>
+        <v>36.21939520654512</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>315.753958306325</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458876</v>
+        <v>112.02900448868</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421731</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654514</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M39" t="n">
-        <v>455.9909955181487</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654934</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458876</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.9962681786159</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158873</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>320.4784556749617</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978728</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>628.151078350734</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654516</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>62.5614280388869</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.87065925847871</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>8.211964027013579</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.20702133496263</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>85.68413985884332</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -23952,13 +23952,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>37.84312462897458</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>126.9450269688241</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>185.7483352484043</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>226.7002559248249</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>17.7884604295883</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>234.0319982097527</v>
       </c>
       <c r="W25" t="n">
-        <v>268.8457704302994</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>147.8142767156753</v>
       </c>
       <c r="H26" t="n">
-        <v>147.8142767156753</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5010685613433</v>
@@ -24621,7 +24621,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>34.26947731054815</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>56.82873360304902</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>147.8142767156737</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24852,7 +24852,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.4283934324466</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>198.0760935364022</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>268.8045416682827</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>226.700255924825</v>
+        <v>147.8142767156752</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>147.6037882504032</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.4874501415983</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>226.7002559248241</v>
+        <v>147.8142767156753</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
         <v>112.8724405582094</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>13.65624468878104</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.88960942327631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>226.7002559248232</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.7884604295883</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.94182986845001</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>112.8724405582094</v>
@@ -25602,19 +25602,19 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>84.25464997537387</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>147.8142767156753</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>133.6247667770363</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.5010685613433</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>147.9383793475926</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.8142767156758</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.82658679128087</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26034,13 +26034,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>42.31829877736756</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>112.8724405582094</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710863.2976118027</v>
+        <v>710863.2976118028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710863.2976118028</v>
+        <v>710863.2976118029</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710863.2976118029</v>
+        <v>710863.2976118028</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731131.0785701316</v>
+        <v>731131.0785701314</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731131.0785701313</v>
+        <v>731131.0785701314</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731131.0785701317</v>
+        <v>731131.0785701318</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731131.0785701314</v>
+        <v>731131.0785701317</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731131.0785701317</v>
+        <v>731131.0785701318</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731131.0785701314</v>
+        <v>731131.0785701317</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731131.0785701316</v>
+        <v>731131.0785701317</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
         <v>423494.2218843881</v>
       </c>
       <c r="D2" t="n">
-        <v>423494.2218843882</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="E2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="F2" t="n">
-        <v>376543.2677956221</v>
+        <v>376543.267795622</v>
       </c>
       <c r="G2" t="n">
         <v>376543.2677956219</v>
@@ -26334,28 +26334,28 @@
         <v>376543.267795622</v>
       </c>
       <c r="I2" t="n">
+        <v>389000.1485648495</v>
+      </c>
+      <c r="J2" t="n">
         <v>389000.1485648493</v>
       </c>
-      <c r="J2" t="n">
-        <v>389000.1485648494</v>
-      </c>
       <c r="K2" t="n">
-        <v>389000.1485648496</v>
+        <v>389000.1485648493</v>
       </c>
       <c r="L2" t="n">
         <v>389000.1485648493</v>
       </c>
       <c r="M2" t="n">
-        <v>389000.1485648495</v>
+        <v>389000.1485648494</v>
       </c>
       <c r="N2" t="n">
-        <v>389000.1485648493</v>
+        <v>389000.1485648496</v>
       </c>
       <c r="O2" t="n">
-        <v>389000.1485648492</v>
+        <v>389000.1485648496</v>
       </c>
       <c r="P2" t="n">
-        <v>389000.1485648495</v>
+        <v>389000.1485648494</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588481</v>
+        <v>45948.62261588479</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
         <v>73588.2819417936</v>
@@ -26450,16 +26450,16 @@
         <v>73588.2819417936</v>
       </c>
       <c r="M4" t="n">
-        <v>73588.2819417936</v>
+        <v>73588.28194179358</v>
       </c>
       <c r="N4" t="n">
         <v>73588.2819417936</v>
       </c>
       <c r="O4" t="n">
+        <v>73588.2819417936</v>
+      </c>
+      <c r="P4" t="n">
         <v>73588.28194179358</v>
-      </c>
-      <c r="P4" t="n">
-        <v>73588.2819417936</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868565</v>
       </c>
       <c r="L5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="M5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74967.83978868565</v>
+      </c>
+      <c r="O5" t="n">
         <v>74967.83978868564</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>74967.83978868564</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74967.83978868563</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74967.83978868563</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20233.03685491567</v>
+        <v>-20233.03685491562</v>
       </c>
       <c r="C6" t="n">
         <v>154722.4730381985</v>
       </c>
       <c r="D6" t="n">
-        <v>154722.4730381986</v>
+        <v>154722.4730381985</v>
       </c>
       <c r="E6" t="n">
-        <v>39173.93768656412</v>
+        <v>38993.35709391502</v>
       </c>
       <c r="F6" t="n">
-        <v>231303.7005860075</v>
+        <v>231123.1199933583</v>
       </c>
       <c r="G6" t="n">
-        <v>231303.7005860073</v>
+        <v>231123.1199933582</v>
       </c>
       <c r="H6" t="n">
-        <v>231303.7005860074</v>
+        <v>231123.1199933583</v>
       </c>
       <c r="I6" t="n">
-        <v>194495.4042184853</v>
+        <v>194362.7347057181</v>
       </c>
       <c r="J6" t="n">
-        <v>103849.2260284752</v>
+        <v>103716.5565157076</v>
       </c>
       <c r="K6" t="n">
-        <v>240444.0268343704</v>
+        <v>240311.3573216025</v>
       </c>
       <c r="L6" t="n">
-        <v>240444.02683437</v>
+        <v>240311.3573216026</v>
       </c>
       <c r="M6" t="n">
-        <v>80085.57633368752</v>
+        <v>79952.90682092005</v>
       </c>
       <c r="N6" t="n">
-        <v>240444.0268343701</v>
+        <v>240311.3573216028</v>
       </c>
       <c r="O6" t="n">
-        <v>240444.02683437</v>
+        <v>240311.3573216029</v>
       </c>
       <c r="P6" t="n">
-        <v>240444.0268343703</v>
+        <v>240311.3573216027</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812874</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812874</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812874</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812874</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812874</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812874</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="P3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.5994067681289</v>
       </c>
     </row>
     <row r="4">
@@ -26810,7 +26810,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334546</v>
@@ -26822,16 +26822,16 @@
         <v>1217.749551334546</v>
       </c>
       <c r="M4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="N4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812874</v>
+        <v>42.59940676812879</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176167</v>
+        <v>52.20333020176145</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700257</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>265.8980835733707</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>180.8782168320125</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27444,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41.98257939627757</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>140.4341843621658</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27593,10 +27593,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>329.5122139865291</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>50.02264605678135</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.98257939627811</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -27785,16 +27785,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>145.2013976991637</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12.21906234721831</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.3173027286402</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28064,10 +28064,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>126.9450269688244</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552913</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096877</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947875</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275967</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394515</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064916</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351432</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710204</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323036</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P23" t="n">
-        <v>24.6265243920216</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163523</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753704</v>
+        <v>3.902448167753709</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707881</v>
+        <v>0.749663932170789</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106937</v>
+        <v>0.09162891267106948</v>
       </c>
       <c r="H24" t="n">
-        <v>0.884942393428486</v>
+        <v>0.884942393428487</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017082</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J24" t="n">
-        <v>8.65692284143643</v>
+        <v>8.656922841436439</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L24" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720063</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538377</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524819</v>
+        <v>5.689030209524825</v>
       </c>
       <c r="S24" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557576</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886146</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875675</v>
+        <v>0.07681860236875683</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513105</v>
+        <v>0.6829872101513113</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507704</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471102</v>
+        <v>5.431075187471108</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388281</v>
+        <v>8.924924893388292</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035812</v>
+        <v>9.290860781035823</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.43251042198744</v>
+        <v>6.432510421987447</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871552</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937787</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750373</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552913</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096877</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947875</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275967</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394515</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064916</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351432</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710204</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323036</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6265243920216</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163523</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753704</v>
+        <v>3.902448167753709</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707881</v>
+        <v>0.749663932170789</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106937</v>
+        <v>0.09162891267106948</v>
       </c>
       <c r="H27" t="n">
-        <v>0.884942393428486</v>
+        <v>0.884942393428487</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017082</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J27" t="n">
-        <v>8.65692284143643</v>
+        <v>8.656922841436439</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L27" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720063</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538377</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524819</v>
+        <v>5.689030209524825</v>
       </c>
       <c r="S27" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557576</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886146</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875675</v>
+        <v>0.07681860236875683</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513105</v>
+        <v>0.6829872101513113</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507704</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471102</v>
+        <v>5.431075187471108</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388281</v>
+        <v>8.924924893388292</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035812</v>
+        <v>9.290860781035823</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.43251042198744</v>
+        <v>6.432510421987447</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871552</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937787</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750373</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552913</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096877</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947875</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275967</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394515</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064916</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351432</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710204</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323036</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6265243920216</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163523</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753704</v>
+        <v>3.902448167753709</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707881</v>
+        <v>0.749663932170789</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106937</v>
+        <v>0.09162891267106948</v>
       </c>
       <c r="H30" t="n">
-        <v>0.884942393428486</v>
+        <v>0.884942393428487</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017082</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J30" t="n">
-        <v>8.65692284143643</v>
+        <v>8.656922841436439</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L30" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720063</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538377</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524819</v>
+        <v>5.689030209524825</v>
       </c>
       <c r="S30" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557576</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886146</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875675</v>
+        <v>0.07681860236875683</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513105</v>
+        <v>0.6829872101513113</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507704</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471102</v>
+        <v>5.431075187471108</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388281</v>
+        <v>8.924924893388292</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035812</v>
+        <v>9.290860781035823</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.43251042198744</v>
+        <v>6.432510421987447</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871552</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937787</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750373</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552913</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096877</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947875</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275967</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394515</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064916</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351432</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710204</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323036</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P32" t="n">
-        <v>24.6265243920216</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163523</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753704</v>
+        <v>3.902448167753709</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707881</v>
+        <v>0.749663932170789</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106937</v>
+        <v>0.09162891267106948</v>
       </c>
       <c r="H33" t="n">
-        <v>0.884942393428486</v>
+        <v>0.884942393428487</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017082</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J33" t="n">
-        <v>8.65692284143643</v>
+        <v>8.656922841436439</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L33" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720063</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538377</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524819</v>
+        <v>5.689030209524825</v>
       </c>
       <c r="S33" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557576</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886146</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875675</v>
+        <v>0.07681860236875683</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513105</v>
+        <v>0.6829872101513113</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507704</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471102</v>
+        <v>5.431075187471108</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388281</v>
+        <v>8.924924893388292</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035812</v>
+        <v>9.290860781035823</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.43251042198744</v>
+        <v>6.432510421987447</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871552</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937787</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750373</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552913</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096877</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947875</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275967</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394515</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064916</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351432</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710204</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323036</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P35" t="n">
-        <v>24.6265243920216</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163523</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753704</v>
+        <v>3.902448167753709</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707881</v>
+        <v>0.749663932170789</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106937</v>
+        <v>0.09162891267106948</v>
       </c>
       <c r="H36" t="n">
-        <v>0.884942393428486</v>
+        <v>0.884942393428487</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017082</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J36" t="n">
-        <v>8.65692284143643</v>
+        <v>8.656922841436439</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L36" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720063</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538377</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524819</v>
+        <v>5.689030209524825</v>
       </c>
       <c r="S36" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557576</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886146</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875675</v>
+        <v>0.07681860236875683</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513105</v>
+        <v>0.6829872101513113</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507704</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471102</v>
+        <v>5.431075187471108</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388281</v>
+        <v>8.924924893388292</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035812</v>
+        <v>9.290860781035823</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.43251042198744</v>
+        <v>6.432510421987447</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871552</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937787</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750373</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552913</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096877</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947875</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275967</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394515</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064916</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351432</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710204</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323036</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P38" t="n">
-        <v>24.6265243920216</v>
+        <v>24.62652439202163</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163523</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753704</v>
+        <v>3.902448167753709</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707881</v>
+        <v>0.749663932170789</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0137003117244233</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106937</v>
+        <v>0.09162891267106948</v>
       </c>
       <c r="H39" t="n">
-        <v>0.884942393428486</v>
+        <v>0.884942393428487</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017082</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J39" t="n">
-        <v>8.65692284143643</v>
+        <v>8.656922841436439</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039808</v>
+        <v>14.79605999039809</v>
       </c>
       <c r="L39" t="n">
-        <v>19.8951286043039</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863016</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720063</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538377</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821499</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622282</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524819</v>
+        <v>5.689030209524825</v>
       </c>
       <c r="S39" t="n">
-        <v>1.70196686474552</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557576</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886146</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875675</v>
+        <v>0.07681860236875683</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513105</v>
+        <v>0.6829872101513113</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507704</v>
+        <v>2.310144878507706</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471102</v>
+        <v>5.431075187471108</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388281</v>
+        <v>8.924924893388292</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944225</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676793</v>
+        <v>12.04166509676794</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935846</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035812</v>
+        <v>9.290860781035823</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.43251042198744</v>
+        <v>6.432510421987447</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871552</v>
+        <v>3.454043702871556</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008242</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937787</v>
+        <v>0.3282249373937791</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750373</v>
+        <v>0.004190105583750377</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O46" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>203.2507825193992</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9700927793176</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34795,13 +34795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>474.8949538093259</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>18.22667726606008</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>516.9120523430244</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>108.5673193121741</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36372,16 +36372,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36609,16 +36609,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>498.4564440779687</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36846,16 +36846,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>498.4564440779687</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37083,16 +37083,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37320,16 +37320,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620671</v>
+        <v>906.3140743620672</v>
       </c>
       <c r="O36" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>75.2664729940913</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37557,16 +37557,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M39" t="n">
-        <v>421.6433884683614</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.287961885339</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>284.2590604684165</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P44" t="n">
         <v>559.1282394618715</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
